--- a/experiment result/128_0.6_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.6_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03648088963213065</v>
+        <v>0.006422441352416338</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05078510415298385</v>
+        <v>0.01547173781838086</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04760979969251572</v>
+        <v>0.009714168550423299</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03364034602639183</v>
+        <v>0.00879661059157627</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03794417000220358</v>
+        <v>0.009739928572787961</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03411898575508494</v>
+        <v>0.004341054309976979</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04319458403868236</v>
+        <v>0.01409143449555819</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03991025167210231</v>
+        <v>0.009982192040667703</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04010409490381252</v>
+        <v>0.007613768817824437</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06675324626532356</v>
+        <v>0.0220345280268918</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07433691230933723</v>
+        <v>0.005537318684013221</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08468051838586878</v>
+        <v>0.02461089290212504</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02252412702286685</v>
+        <v>0.003336434308243469</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05125186045819017</v>
+        <v>0.007008804600222481</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04519641081184065</v>
+        <v>0.01108264791492475</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03857037102939662</v>
+        <v>0.006100891904149794</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05392636361277914</v>
+        <v>0.005467771351447518</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02390870257983909</v>
+        <v>0.003030230637455824</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05253034006044556</v>
+        <v>0.01826528097403988</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05081277658648899</v>
+        <v>0.01345856448804892</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0351851278251648</v>
+        <v>0.003869433354792646</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03262906972068295</v>
+        <v>0.002980974490327103</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05429179901797802</v>
+        <v>0.02144750115261945</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02689832300114065</v>
+        <v>0.002743779679024891</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01651471784605291</v>
+        <v>0.0009653019355960531</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05049922394806224</v>
+        <v>0.0107052340357569</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05824173947540454</v>
+        <v>0.0056270101724752</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04142645587051489</v>
+        <v>0.009240492148923623</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04358616106946059</v>
+        <v>0.008867501826864063</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05624229970329743</v>
+        <v>0.01298375498670355</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01485366419275602</v>
+        <v>0.0006633226150679135</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04331819993374256</v>
+        <v>0.01136888988894455</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06014398258734459</v>
+        <v>0.01308218503909811</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03672565904769114</v>
+        <v>0.01559472724997391</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05384636594685147</v>
+        <v>0.0127832660627226</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06153174448314452</v>
+        <v>0.01675306250127354</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03663589907374402</v>
+        <v>0.005523336863193012</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04751754855579592</v>
+        <v>0.008286780118189854</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04637247648702602</v>
+        <v>0.01173116709126376</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04398383235282578</v>
+        <v>0.0131588453291298</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06861061725202017</v>
+        <v>0.01245642620117757</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03777561735547463</v>
+        <v>0.006240111893414575</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05150695881523162</v>
+        <v>0.01429696145692213</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04474526490666329</v>
+        <v>0.0173058679684176</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03991597425975926</v>
+        <v>0.01285311113638155</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05477692207067695</v>
+        <v>0.007955285159585644</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05605659607612421</v>
+        <v>0.02855579019110215</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04253726546128878</v>
+        <v>0.006499256924120985</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0512714787438263</v>
+        <v>0.005078386330238846</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01762167317876136</v>
+        <v>0.002604041208889803</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06923987072758259</v>
+        <v>0.009908433424144871</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05119847556557568</v>
+        <v>0.009166901141822479</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01853549124473746</v>
+        <v>0.003932509372786326</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02106865721146728</v>
+        <v>0.002905809259595809</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05359374964900319</v>
+        <v>0.01818432789264684</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04379338167123403</v>
+        <v>0.008316120358981065</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04431120842669765</v>
+        <v>0.005996961496804956</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04626947677139769</v>
+        <v>0.0100550733870232</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02934489853090379</v>
+        <v>0.004484552725566346</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03380184894718895</v>
+        <v>0.004808493471648057</v>
       </c>
     </row>
   </sheetData>
